--- a/meta_stra_framwork/result/newzhongli/year/2019_trade.xlsx
+++ b/meta_stra_framwork/result/newzhongli/year/2019_trade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>code</t>
   </si>
@@ -32,15 +32,6 @@
   </si>
   <si>
     <t>position</t>
-  </si>
-  <si>
-    <t>000001.XSHE</t>
-  </si>
-  <si>
-    <t>[1. 0. 0. 0.]</t>
-  </si>
-  <si>
-    <t>[0. 1. 0. 0.]</t>
   </si>
 </sst>
 </file>
@@ -398,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,98 +413,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>20190116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>10.48</v>
-      </c>
-      <c r="F2">
-        <v>1048</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>20190311</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>12.32</v>
-      </c>
-      <c r="F3">
-        <v>1232</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>20190402</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>13.36</v>
-      </c>
-      <c r="F4">
-        <v>1336</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>20190425</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>14.13</v>
-      </c>
-      <c r="F5">
-        <v>1413</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/meta_stra_framwork/result/newzhongli/year/2019_trade.xlsx
+++ b/meta_stra_framwork/result/newzhongli/year/2019_trade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>code</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>position</t>
-  </si>
-  <si>
-    <t>000001.XSHE</t>
-  </si>
-  <si>
-    <t>[1. 0. 0. 0.]</t>
   </si>
 </sst>
 </file>
@@ -395,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,29 +413,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>20190124</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>10.52</v>
-      </c>
-      <c r="F2">
-        <v>1052</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
